--- a/StructureDefinition-ImagingFinding.xlsx
+++ b/StructureDefinition-ImagingFinding.xlsx
@@ -890,7 +890,7 @@
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
   </si>
   <si>
-    <t>http://aehrc.github.io/genclipr-fhir-ig/ValueSet/BodySites</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>

--- a/StructureDefinition-ImagingFinding.xlsx
+++ b/StructureDefinition-ImagingFinding.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T00:45:29+00:00</t>
+    <t>2022-03-21T00:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
